--- a/list-gtx-1650-super.xlsx
+++ b/list-gtx-1650-super.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="93">
   <si>
     <t>Price</t>
   </si>
@@ -91,6 +91,12 @@
     <t>Tarjeta Grafica Zotac Gtx 1660 Super 6gb Nuevo</t>
   </si>
   <si>
+    <t>4.988</t>
+  </si>
+  <si>
+    <t>Nvidia Geforce Rtx 3090 Founders Edition 24g</t>
+  </si>
+  <si>
     <t>450</t>
   </si>
   <si>
@@ -127,12 +133,6 @@
     <t>Tarjeta De Video Nvidia Geforce Gtx 1660 Super *** Latin</t>
   </si>
   <si>
-    <t>4.988</t>
-  </si>
-  <si>
-    <t>Nvidia Geforce Rtx 3090 Founders Edition 24g</t>
-  </si>
-  <si>
     <t>1.900</t>
   </si>
   <si>
@@ -208,6 +208,12 @@
     <t>Tv Gigabyte Nvidia Geforce Gtx 1660 Super Oc 6g 6gb Gddr6</t>
   </si>
   <si>
+    <t>950</t>
+  </si>
+  <si>
+    <t>Tarjeta De Video Msi Gtx 1660 Super</t>
+  </si>
+  <si>
     <t>750</t>
   </si>
   <si>
@@ -220,12 +226,6 @@
     <t>Tarjeta Grafica Gtx 1650 Gaming X 4g</t>
   </si>
   <si>
-    <t>950</t>
-  </si>
-  <si>
-    <t>Tarjeta De Video Msi Gtx 1660 Super</t>
-  </si>
-  <si>
     <t>250</t>
   </si>
   <si>
@@ -238,22 +238,34 @@
     <t>Evga Geforce Gtx 1650 4gb Sc Ultra</t>
   </si>
   <si>
+    <t>Tarjeta De Video Msi Nvidia Geforce Gtx 1660 Super 6gb Gddr6</t>
+  </si>
+  <si>
+    <t>1.990</t>
+  </si>
+  <si>
+    <t>Tarjeta Gráfica Palit Nvidia Gtx1650 4gb</t>
+  </si>
+  <si>
+    <t>1.599</t>
+  </si>
+  <si>
+    <t>Tarjeta De Video Asus Dual Gtx1650, 4gb Gddr5 128-bit,</t>
+  </si>
+  <si>
+    <t>1.024</t>
+  </si>
+  <si>
+    <t>Tarjeta Grafica Msi Gtx 1660s 6gb Nuevo Sellado</t>
+  </si>
+  <si>
     <t>890</t>
   </si>
   <si>
     <t>Asus Geforce Gtx 1660 Super 6gb Dual</t>
   </si>
   <si>
-    <t>1.990</t>
-  </si>
-  <si>
-    <t>Tarjeta Gráfica Palit Nvidia Gtx1650 4gb</t>
-  </si>
-  <si>
-    <t>1.599</t>
-  </si>
-  <si>
-    <t>Tarjeta De Video Asus Dual Gtx1650, 4gb Gddr5 128-bit,</t>
+    <t>1.999</t>
   </si>
   <si>
     <t>2.500</t>
@@ -268,22 +280,7 @@
     <t>Tarjeta De Video Vga 6g Asus Gtx1660 Sup Oc Gddr6</t>
   </si>
   <si>
-    <t>1.999</t>
-  </si>
-  <si>
-    <t>2.646</t>
-  </si>
-  <si>
-    <t>Gtx 1660 Super</t>
-  </si>
-  <si>
-    <t>1.500</t>
-  </si>
-  <si>
-    <t>Geforce Gtx 1660 Super</t>
-  </si>
-  <si>
-    <t>1.150</t>
+    <t>1.100</t>
   </si>
   <si>
     <t>Msi Geforce Gtx 1650 4gb Ventus Xs Oc Edition - Nuevo</t>
@@ -894,7 +891,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
         <v>44</v>
@@ -1004,7 +1001,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31" t="s">
         <v>60</v>
@@ -1037,10 +1034,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="C34" t="s">
         <v>22</v>
@@ -1048,10 +1045,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C35" t="s">
         <v>22</v>
@@ -1059,10 +1056,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C36" t="s">
         <v>22</v>
@@ -1070,10 +1067,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="C37" t="s">
         <v>22</v>
@@ -1081,10 +1078,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C38" t="s">
         <v>22</v>
@@ -1114,10 +1111,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="C41" t="s">
         <v>22</v>
@@ -1125,10 +1122,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="C42" t="s">
         <v>22</v>
@@ -1136,10 +1133,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" t="s">
         <v>77</v>
-      </c>
-      <c r="B43" t="s">
-        <v>78</v>
       </c>
       <c r="C43" t="s">
         <v>22</v>
@@ -1147,10 +1144,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" t="s">
         <v>79</v>
-      </c>
-      <c r="B44" t="s">
-        <v>80</v>
       </c>
       <c r="C44" t="s">
         <v>22</v>
@@ -1158,10 +1155,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" t="s">
         <v>81</v>
-      </c>
-      <c r="B45" t="s">
-        <v>82</v>
       </c>
       <c r="C45" t="s">
         <v>22</v>
@@ -1169,10 +1166,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" t="s">
         <v>83</v>
-      </c>
-      <c r="B46" t="s">
-        <v>84</v>
       </c>
       <c r="C46" t="s">
         <v>22</v>
@@ -1180,10 +1177,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B47" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C47" t="s">
         <v>22</v>
@@ -1191,10 +1188,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>85</v>
+      </c>
+      <c r="B48" t="s">
         <v>86</v>
-      </c>
-      <c r="B48" t="s">
-        <v>87</v>
       </c>
       <c r="C48" t="s">
         <v>22</v>
@@ -1202,10 +1199,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>87</v>
+      </c>
+      <c r="B49" t="s">
         <v>88</v>
-      </c>
-      <c r="B49" t="s">
-        <v>89</v>
       </c>
       <c r="C49" t="s">
         <v>22</v>
@@ -1213,10 +1210,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" t="s">
         <v>90</v>
-      </c>
-      <c r="B50" t="s">
-        <v>91</v>
       </c>
       <c r="C50" t="s">
         <v>22</v>
@@ -1224,10 +1221,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>91</v>
+      </c>
+      <c r="B51" t="s">
         <v>92</v>
-      </c>
-      <c r="B51" t="s">
-        <v>93</v>
       </c>
       <c r="C51" t="s">
         <v>22</v>
